--- a/Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MET.SOFTWARE\proyecto-riego\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8736B2C-B26F-4C27-878A-AAC6BD7D96BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39717DE9-F1C6-43F8-BFFC-85BF79D85B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="TotalHours">SprintBacklog[[#Totals],[Estimated Hours]]</definedName>
     <definedName name="WorkingDays">Sprint1Info!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,6 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -530,13 +529,13 @@
     <t>activar la bomba cuando la tierra este seca</t>
   </si>
   <si>
-    <t>Medir el agua del taque</t>
-  </si>
-  <si>
     <t>evitar que se dañe si no hay agua</t>
   </si>
   <si>
     <t>SR2</t>
+  </si>
+  <si>
+    <t>Medir el agua en el tanque</t>
   </si>
 </sst>
 </file>
@@ -1142,13 +1141,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1638,7 +1637,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -3297,17 +3296,17 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="51.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="51.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
@@ -3333,7 +3332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="39" t="s">
         <v>146</v>
       </c>
@@ -3359,9 +3358,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>44</v>
@@ -3370,10 +3369,10 @@
         <v>147</v>
       </c>
       <c r="D3" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="23" t="s">
         <v>150</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>151</v>
       </c>
       <c r="F3" s="24" t="s">
         <v>113</v>
@@ -3385,7 +3384,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>27</v>
       </c>
@@ -3411,7 +3410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="36" t="s">
         <v>28</v>
       </c>
@@ -3437,7 +3436,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>29</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="36" t="s">
         <v>30</v>
       </c>
@@ -3489,7 +3488,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>31</v>
       </c>
@@ -3515,7 +3514,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="36" t="s">
         <v>32</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="36" t="s">
         <v>33</v>
       </c>
@@ -3567,7 +3566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>34</v>
       </c>
@@ -3593,7 +3592,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>109</v>
       </c>
@@ -3619,7 +3618,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="38" t="s">
         <v>110</v>
       </c>
@@ -3658,9 +3657,9 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="17" t="s">
         <v>36</v>
@@ -3687,7 +3686,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -3712,7 +3711,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="47"/>
       <c r="C3" s="48" t="s">
@@ -3729,17 +3728,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
       <c r="G4" s="52" t="s">
         <v>102</v>
       </c>
@@ -3748,17 +3747,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
       <c r="G5" s="55" t="s">
         <v>102</v>
       </c>
@@ -3767,13 +3766,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
       <c r="B6" s="18"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
       <c r="G6" s="18"/>
       <c r="H6" s="61" t="s">
         <v>117</v>
@@ -3783,7 +3782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
         <v>36</v>
@@ -3810,7 +3809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
         <v>26</v>
@@ -3835,7 +3834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="18"/>
       <c r="C9" s="22" t="s">
@@ -3852,17 +3851,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
       <c r="B10" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="49" t="s">
         <v>103</v>
       </c>
@@ -3871,17 +3870,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19"/>
       <c r="B11" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="68" t="s">
+      <c r="C11" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
       <c r="G11" s="52" t="s">
         <v>103</v>
       </c>
@@ -3890,17 +3889,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="67"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="67"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="55" t="s">
         <v>103</v>
       </c>
@@ -3909,13 +3908,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="18"/>
       <c r="H13" s="61" t="s">
         <v>117</v>
@@ -3925,7 +3924,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19"/>
       <c r="B14" s="17" t="s">
         <v>36</v>
@@ -3952,7 +3951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
         <v>27</v>
@@ -3977,7 +3976,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
       <c r="C16" s="22" t="s">
@@ -3994,17 +3993,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
       <c r="B17" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
       <c r="G17" s="49" t="s">
         <v>102</v>
       </c>
@@ -4013,17 +4012,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
       <c r="G18" s="52" t="s">
         <v>102</v>
       </c>
@@ -4032,17 +4031,17 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
       <c r="G19" s="55" t="s">
         <v>102</v>
       </c>
@@ -4051,7 +4050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4067,7 +4066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="17" t="s">
         <v>36</v>
@@ -4094,7 +4093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="20" t="s">
         <v>28</v>
@@ -4119,7 +4118,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="18"/>
       <c r="C23" s="22" t="s">
@@ -4136,17 +4135,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="47" t="s">
         <v>124</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="49" t="s">
         <v>103</v>
       </c>
@@ -4155,17 +4154,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
       <c r="G25" s="55" t="s">
         <v>103</v>
       </c>
@@ -4174,13 +4173,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
       <c r="B26" s="18"/>
       <c r="C26" s="73"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="18"/>
       <c r="H26" s="61" t="s">
         <v>117</v>
@@ -4190,7 +4189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19"/>
       <c r="B27" s="17" t="s">
         <v>36</v>
@@ -4217,7 +4216,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19"/>
       <c r="B28" s="20" t="s">
         <v>29</v>
@@ -4242,7 +4241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="19"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
@@ -4253,7 +4252,7 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="18"/>
       <c r="C30" s="22" t="s">
@@ -4270,17 +4269,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="19"/>
       <c r="B31" s="47" t="s">
         <v>126</v>
       </c>
-      <c r="C31" s="71" t="s">
+      <c r="C31" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="72"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="49" t="s">
         <v>102</v>
       </c>
@@ -4289,17 +4288,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
       <c r="G32" s="55" t="s">
         <v>103</v>
       </c>
@@ -4308,7 +4307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="18"/>
       <c r="C33" s="18"/>
@@ -4324,7 +4323,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="19"/>
       <c r="B34" s="17" t="s">
         <v>36</v>
@@ -4351,7 +4350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="19"/>
       <c r="B35" s="20" t="s">
         <v>30</v>
@@ -4376,7 +4375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="18"/>
       <c r="C36" s="22" t="s">
@@ -4393,17 +4392,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="19"/>
       <c r="B37" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="71" t="s">
+      <c r="C37" s="67" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
       <c r="G37" s="49" t="s">
         <v>102</v>
       </c>
@@ -4412,17 +4411,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
       <c r="B38" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="67"/>
-      <c r="E38" s="67"/>
-      <c r="F38" s="67"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="72"/>
+      <c r="F38" s="72"/>
       <c r="G38" s="55" t="s">
         <v>103</v>
       </c>
@@ -4431,13 +4430,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="70"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
       <c r="G39" s="18"/>
       <c r="H39" s="61" t="s">
         <v>117</v>
@@ -4447,7 +4446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="19"/>
       <c r="B40" s="17" t="s">
         <v>36</v>
@@ -4474,7 +4473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="19"/>
       <c r="B41" s="20" t="s">
         <v>31</v>
@@ -4499,7 +4498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
       <c r="B42" s="18"/>
       <c r="C42" s="22" t="s">
@@ -4516,17 +4515,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="19"/>
       <c r="B43" s="47" t="s">
         <v>130</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
       <c r="G43" s="49" t="s">
         <v>102</v>
       </c>
@@ -4535,17 +4534,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="19"/>
       <c r="B44" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="68" t="s">
+      <c r="C44" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="69"/>
-      <c r="E44" s="69"/>
-      <c r="F44" s="69"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
       <c r="G44" s="52" t="s">
         <v>102</v>
       </c>
@@ -4554,17 +4553,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
       <c r="B45" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="72"/>
       <c r="G45" s="55" t="s">
         <v>102</v>
       </c>
@@ -4573,7 +4572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -4589,7 +4588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19"/>
       <c r="B47" s="17" t="s">
         <v>36</v>
@@ -4616,7 +4615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="19"/>
       <c r="B48" s="20" t="s">
         <v>32</v>
@@ -4641,7 +4640,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
       <c r="B49" s="18"/>
       <c r="C49" s="22" t="s">
@@ -4658,17 +4657,17 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19"/>
       <c r="B50" s="47" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
       <c r="G50" s="49" t="s">
         <v>103</v>
       </c>
@@ -4677,17 +4676,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="19"/>
       <c r="B51" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="C51" s="68" t="s">
+      <c r="C51" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
+      <c r="D51" s="70"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
       <c r="G51" s="52" t="s">
         <v>103</v>
       </c>
@@ -4696,17 +4695,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
       <c r="B52" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="C52" s="66" t="s">
+      <c r="C52" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="67"/>
-      <c r="E52" s="67"/>
-      <c r="F52" s="67"/>
+      <c r="D52" s="72"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="72"/>
       <c r="G52" s="55" t="s">
         <v>103</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H53" s="61" t="s">
         <v>117</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
         <v>36</v>
       </c>
@@ -4750,7 +4749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B55" s="20" t="s">
         <v>33</v>
       </c>
@@ -4774,7 +4773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
       <c r="D56" s="18"/>
@@ -4784,7 +4783,7 @@
       <c r="H56" s="18"/>
       <c r="I56" s="18"/>
     </row>
-    <row r="57" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="18"/>
       <c r="C57" s="22" t="s">
         <v>75</v>
@@ -4800,16 +4799,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="71" t="s">
+      <c r="C58" s="67" t="s">
         <v>98</v>
       </c>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="68"/>
+      <c r="F58" s="68"/>
       <c r="G58" s="49" t="s">
         <v>103</v>
       </c>
@@ -4818,7 +4817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B59" s="54" t="s">
         <v>144</v>
       </c>
@@ -4836,12 +4835,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="18"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
       <c r="G60" s="18"/>
       <c r="H60" s="61" t="s">
         <v>117</v>
@@ -4851,7 +4850,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" s="17" t="s">
         <v>36</v>
       </c>
@@ -4877,7 +4876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" s="20" t="s">
         <v>34</v>
       </c>
@@ -4901,7 +4900,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="18"/>
       <c r="C63" s="22" t="s">
         <v>75</v>
@@ -4917,16 +4916,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B64" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="71" t="s">
+      <c r="C64" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="68"/>
+      <c r="F64" s="68"/>
       <c r="G64" s="49" t="s">
         <v>102</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="54" t="s">
         <v>138</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H66" s="61" t="s">
         <v>117</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="H67" s="60" t="s">
         <v>116</v>
       </c>
@@ -4973,21 +4972,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
@@ -5000,6 +4984,21 @@
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C52:F52"/>
+    <mergeCell ref="C58:F58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5013,9 +5012,9 @@
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="19"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5026,7 +5025,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" s="20" t="s">
         <v>109</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18"/>
       <c r="C4" s="22" t="s">
         <v>75</v>
@@ -5092,16 +5091,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="49" t="s">
         <v>88</v>
       </c>
@@ -5110,7 +5109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="54" t="s">
         <v>140</v>
       </c>
@@ -5128,12 +5127,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18"/>
       <c r="C7" s="73"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="18"/>
       <c r="H7" s="63" t="s">
         <v>117</v>
@@ -5143,7 +5142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -5153,7 +5152,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
@@ -5179,7 +5178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="20" t="s">
         <v>110</v>
       </c>
@@ -5203,7 +5202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="18"/>
       <c r="C11" s="22" t="s">
         <v>75</v>
@@ -5219,16 +5218,16 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12" s="47" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
       <c r="G12" s="49" t="s">
         <v>102</v>
       </c>
@@ -5237,16 +5236,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="71" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="55" t="s">
         <v>102</v>
       </c>
@@ -5255,7 +5254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H14" s="61" t="s">
         <v>117</v>
       </c>
@@ -5264,7 +5263,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H15" s="59" t="s">
         <v>116</v>
       </c>
@@ -5292,17 +5291,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5313,7 +5312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>43284</v>
       </c>
@@ -5321,7 +5320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -5331,7 +5330,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -5352,7 +5351,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -5361,7 +5360,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -5372,7 +5371,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -5382,7 +5381,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -5392,25 +5391,25 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="2"/>
     </row>
   </sheetData>
@@ -5430,19 +5429,19 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="3"/>
-    <col min="2" max="2" width="9.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -5465,7 +5464,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -5488,7 +5487,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -5511,7 +5510,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -5534,7 +5533,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -5557,7 +5556,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -5580,7 +5579,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -5603,7 +5602,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -5626,7 +5625,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -5649,7 +5648,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -5672,7 +5671,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -5695,7 +5694,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5729,14 +5728,14 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="7.88671875" style="3"/>
+    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.28515625" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="7.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="50.4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -5751,7 +5750,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -5769,7 +5768,7 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5786,7 +5785,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5803,7 +5802,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5820,7 +5819,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5837,7 +5836,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5854,7 +5853,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -5871,7 +5870,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5888,7 +5887,7 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -5905,7 +5904,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5922,7 +5921,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>10</v>
       </c>

--- a/Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
+++ b/Excel/grupo4_Excel-Burndown-Chart-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\MET.SOFTWARE\proyecto-riego\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\Documents\GitHub\proyecto-riego\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39717DE9-F1C6-43F8-BFFC-85BF79D85B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F40BED-146E-419B-ACDD-68EED528CC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BackLog" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="TotalHours">SprintBacklog[[#Totals],[Estimated Hours]]</definedName>
     <definedName name="WorkingDays">Sprint1Info!$B$6</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,6 +36,7 @@
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="119">
   <si>
     <t>Start Date</t>
   </si>
@@ -217,27 +218,12 @@
     <t xml:space="preserve">Gerente </t>
   </si>
   <si>
-    <t>Agregar una compra</t>
-  </si>
-  <si>
-    <t>registrar una compra realizada</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
     <t>Terminado</t>
   </si>
   <si>
-    <t>Agregar un proveedor</t>
-  </si>
-  <si>
-    <t>Agregar productos</t>
-  </si>
-  <si>
-    <t>agregar productos a la base datos</t>
-  </si>
-  <si>
     <t>Eliminar una compra</t>
   </si>
   <si>
@@ -319,12 +305,6 @@
     <t>Validación de datos</t>
   </si>
   <si>
-    <t>Gerente</t>
-  </si>
-  <si>
-    <t>Agregar un proveedor a la base de datos</t>
-  </si>
-  <si>
     <t>Crear un formulario para el ingreso de los datos del proveedor</t>
   </si>
   <si>
@@ -337,54 +317,9 @@
     <t>Habilitar la Base de Datos para guardar los datos de la compra</t>
   </si>
   <si>
-    <t>Crear un formulario para eliminar las compras</t>
-  </si>
-  <si>
-    <t>Crear una sección que permita buscar la compra que se eliminará</t>
-  </si>
-  <si>
     <t>Diego</t>
   </si>
   <si>
-    <t>Crear un formulario para eliminar el proveedor</t>
-  </si>
-  <si>
-    <t>Crear una sección que permita buscar el proveedor que se eliminará</t>
-  </si>
-  <si>
-    <t>Crear una sección que permita buscar los productos a eliminar</t>
-  </si>
-  <si>
-    <t>Crear un formulario para realizar las modificaciones de una compra</t>
-  </si>
-  <si>
-    <t>Crear una sección que permita ingresar el de codigo de la compra y buscarla</t>
-  </si>
-  <si>
-    <t>Actualización de bases de datos</t>
-  </si>
-  <si>
-    <t>Crear un formulario para realizar la modificación de un proveedor</t>
-  </si>
-  <si>
-    <t>Crear una sección que permita ingresar los datos del proveedor</t>
-  </si>
-  <si>
-    <t>Actualización de base de datos</t>
-  </si>
-  <si>
-    <t>Crear un formulario para poder visualizar la compra</t>
-  </si>
-  <si>
-    <t>Habilitar la Base de Datos para buscar la información de la compra</t>
-  </si>
-  <si>
-    <t>Crear un formulario para poder visualizar los datos del proveedor</t>
-  </si>
-  <si>
-    <t>Habilitar la Base de Datos para buscar la información del proveedor</t>
-  </si>
-  <si>
     <t>Juan</t>
   </si>
   <si>
@@ -433,69 +368,6 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>HU1-1</t>
-  </si>
-  <si>
-    <t>HU2-1</t>
-  </si>
-  <si>
-    <t>HU2-2</t>
-  </si>
-  <si>
-    <t>HU3-3</t>
-  </si>
-  <si>
-    <t>HU3-1</t>
-  </si>
-  <si>
-    <t>HU3-2</t>
-  </si>
-  <si>
-    <t>HU4-1</t>
-  </si>
-  <si>
-    <t>HU4-2</t>
-  </si>
-  <si>
-    <t>HU5-1</t>
-  </si>
-  <si>
-    <t>HU5-2</t>
-  </si>
-  <si>
-    <t>HU6-1</t>
-  </si>
-  <si>
-    <t>HU6-2</t>
-  </si>
-  <si>
-    <t>HU7-1</t>
-  </si>
-  <si>
-    <t>HU7-2</t>
-  </si>
-  <si>
-    <t>HU7-3</t>
-  </si>
-  <si>
-    <t>HU8-1</t>
-  </si>
-  <si>
-    <t>HU8-2</t>
-  </si>
-  <si>
-    <t>HU8-3</t>
-  </si>
-  <si>
-    <t>HU9-1</t>
-  </si>
-  <si>
-    <t>HU10-1</t>
-  </si>
-  <si>
-    <t>HU10-2</t>
-  </si>
-  <si>
     <t>HU11-1</t>
   </si>
   <si>
@@ -508,15 +380,6 @@
     <t>HU12-2</t>
   </si>
   <si>
-    <t>HU2-3</t>
-  </si>
-  <si>
-    <t>HU9-2</t>
-  </si>
-  <si>
-    <t>HU1-2</t>
-  </si>
-  <si>
     <t>SR1</t>
   </si>
   <si>
@@ -536,6 +399,42 @@
   </si>
   <si>
     <t>Medir el agua en el tanque</t>
+  </si>
+  <si>
+    <t>Riego</t>
+  </si>
+  <si>
+    <t>Ver una notificación</t>
+  </si>
+  <si>
+    <t>ver a cuando se activo la bomba</t>
+  </si>
+  <si>
+    <t>SR3</t>
+  </si>
+  <si>
+    <t>SR1-1</t>
+  </si>
+  <si>
+    <t>SR1-2</t>
+  </si>
+  <si>
+    <t>SR2-1</t>
+  </si>
+  <si>
+    <t>SR2-2</t>
+  </si>
+  <si>
+    <t>SR2-3</t>
+  </si>
+  <si>
+    <t>SR3-1</t>
+  </si>
+  <si>
+    <t>SR3-2</t>
+  </si>
+  <si>
+    <t>SR3-3</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +939,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1141,13 +1040,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -1637,7 +1540,7 @@
       </font>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <font>
@@ -3295,18 +3198,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="154" zoomScaleNormal="154" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="23.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="51.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
         <v>36</v>
       </c>
@@ -3332,85 +3235,79 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A2" s="39" t="s">
-        <v>146</v>
+        <v>100</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C2" s="41" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>149</v>
+        <v>103</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G2" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
-        <v>151</v>
+        <v>105</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>152</v>
+        <v>106</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="F3" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G3" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A4" s="36" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>71</v>
+        <v>101</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" s="36" t="s">
         <v>28</v>
       </c>
@@ -3418,25 +3315,25 @@
         <v>44</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" s="36" t="s">
         <v>29</v>
       </c>
@@ -3447,22 +3344,22 @@
         <v>45</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F6" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H6" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" s="36" t="s">
         <v>30</v>
       </c>
@@ -3470,25 +3367,25 @@
         <v>44</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A8" s="36" t="s">
         <v>31</v>
       </c>
@@ -3496,25 +3393,25 @@
         <v>44</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E8" s="23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A9" s="36" t="s">
         <v>32</v>
       </c>
@@ -3525,22 +3422,22 @@
         <v>45</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E9" s="23" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H9" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A10" s="36" t="s">
         <v>33</v>
       </c>
@@ -3548,25 +3445,25 @@
         <v>44</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E10" s="23" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A11" s="37" t="s">
         <v>34</v>
       </c>
@@ -3577,24 +3474,24 @@
         <v>45</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="G11" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.8" hidden="1" x14ac:dyDescent="0.4">
       <c r="A12" s="37" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B12" s="29" t="s">
         <v>44</v>
@@ -3603,24 +3500,24 @@
         <v>45</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F12" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G12" s="30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17.399999999999999" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="38" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>44</v>
@@ -3629,19 +3526,19 @@
         <v>45</v>
       </c>
       <c r="D13" s="32" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H13" s="35" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3651,15 +3548,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="17" t="s">
         <v>36</v>
@@ -3671,118 +3568,118 @@
         <v>38</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G1" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="19"/>
       <c r="B2" s="20" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
       <c r="B3" s="47"/>
       <c r="C3" s="48" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+        <v>70</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
       <c r="G3" s="48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="49"/>
+        <v>71</v>
+      </c>
+      <c r="H3" s="66"/>
       <c r="I3" s="50" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
       <c r="B4" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="H4" s="52"/>
+        <v>111</v>
+      </c>
+      <c r="C4" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="67"/>
       <c r="I4" s="53">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="54" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="55"/>
+        <v>112</v>
+      </c>
+      <c r="C5" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="68"/>
       <c r="I5" s="56">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="19"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="61" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I6" s="65">
         <f>SUM(I4:I5)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="19"/>
       <c r="B7" s="17" t="s">
         <v>36</v>
@@ -3794,137 +3691,137 @@
         <v>38</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G7" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="20" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="20"/>
+        <v>104</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="H8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
-      <c r="B9" s="18"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
       <c r="G9" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="18"/>
+        <v>71</v>
+      </c>
+      <c r="H9" s="69"/>
       <c r="I9" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
+        <v>113</v>
+      </c>
+      <c r="C10" s="75" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
       <c r="G10" s="49" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H10" s="49"/>
       <c r="I10" s="57">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="19"/>
       <c r="B11" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+        <v>114</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="52" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
       <c r="B12" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+        <v>115</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
       <c r="G12" s="55" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="58">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="18"/>
       <c r="H13" s="61" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I13" s="65">
         <f>SUM(I10:I12)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="17" t="s">
         <v>36</v>
@@ -3936,121 +3833,121 @@
         <v>38</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G14" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I14" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="20" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="H15" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="19"/>
       <c r="B16" s="18"/>
       <c r="C16" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
       <c r="G16" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H16" s="18"/>
       <c r="I16" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17" s="67" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
+        <v>116</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
       <c r="G17" s="49" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H17" s="49"/>
       <c r="I17" s="57">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
+        <v>117</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="52" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="19"/>
       <c r="B19" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
+        <v>118</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
       <c r="G19" s="55" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="56">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="19"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -4059,920 +3956,118 @@
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="61" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I20" s="65">
         <f>SUM(I17:I19)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="19"/>
-      <c r="B21" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
-      <c r="B22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.4">
       <c r="A23" s="19"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="I23" s="60">
+        <f>I6+I13+I20+I26+I33+I39+I46+I53+I60+I66</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
-      <c r="B24" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="49"/>
-      <c r="I24" s="57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
-      <c r="B25" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="19"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" s="65">
-        <f>SUM(I24:I25)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
-      <c r="B27" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I27" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
-      <c r="B28" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H30" s="18"/>
-      <c r="I30" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="19"/>
-      <c r="B31" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="C31" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="49"/>
-      <c r="I31" s="57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
-      <c r="B32" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H32" s="55"/>
-      <c r="I32" s="56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="65">
-        <f>SUM(I31:I32)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="19"/>
-      <c r="B34" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="19"/>
-      <c r="B35" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H36" s="18"/>
-      <c r="I36" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="19"/>
-      <c r="B37" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="C37" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="68"/>
-      <c r="G37" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="49"/>
-      <c r="I37" s="57">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="19"/>
-      <c r="B38" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="71" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="56">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="19"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="65">
-        <f>SUM(I37:I38)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="19"/>
-      <c r="B40" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="19"/>
-      <c r="B41" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="19"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="18"/>
-      <c r="I42" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="19"/>
-      <c r="B43" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C43" s="67" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="68"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="68"/>
-      <c r="G43" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H43" s="49"/>
-      <c r="I43" s="57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="19"/>
-      <c r="B44" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="C44" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="G44" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="19"/>
-      <c r="B45" s="54" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H45" s="55"/>
-      <c r="I45" s="56">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="19"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I46" s="65">
-        <f>SUM(I43:I45)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="19"/>
-      <c r="B47" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C47" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I47" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="19"/>
-      <c r="B48" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="G48" s="21"/>
-      <c r="H48" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="19"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="18"/>
-      <c r="I49" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="19"/>
-      <c r="B50" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="67" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H50" s="49"/>
-      <c r="I50" s="57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="19"/>
-      <c r="B51" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="C51" s="69" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="70"/>
-      <c r="E51" s="70"/>
-      <c r="F51" s="70"/>
-      <c r="G51" s="52" t="s">
-        <v>103</v>
-      </c>
-      <c r="H51" s="52"/>
-      <c r="I51" s="53">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="19"/>
-      <c r="B52" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H52" s="55"/>
-      <c r="I52" s="56">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H53" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I53" s="65">
-        <f>SUM(I50:I52)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I54" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B55" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="21"/>
-      <c r="H55" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="18"/>
-      <c r="C57" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H57" s="18"/>
-      <c r="I57" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="67" t="s">
-        <v>98</v>
-      </c>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="H58" s="49"/>
-      <c r="I58" s="57">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C59" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="55"/>
-      <c r="G59" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="H59" s="55"/>
-      <c r="I59" s="56">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="18"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I60" s="65">
-        <f>SUM(I58:I59)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="I61" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="21"/>
-      <c r="H62" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="I62" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="18"/>
-      <c r="C63" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="H63" s="18"/>
-      <c r="I63" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="47" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="49" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" s="49"/>
-      <c r="I64" s="57">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="G65" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" s="55"/>
-      <c r="I65" s="56">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H66" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="I66" s="65">
-        <f>SUM(I64:I65)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" ht="21" x14ac:dyDescent="0.35">
-      <c r="H67" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="I67" s="60">
-        <f>I6+I13+I20+I26+I33+I39+I46+I53+I60+I66</f>
-        <v>160</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="C25:F25"/>
+  <mergeCells count="10">
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C6:F6"/>
@@ -4983,22 +4078,6 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C18:F18"/>
     <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C58:F58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5008,13 +4087,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="19"/>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -5025,7 +4104,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="17" t="s">
         <v>36</v>
       </c>
@@ -5036,24 +4115,24 @@
         <v>38</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" s="20" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>44</v>
@@ -5062,87 +4141,87 @@
         <v>45</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="18"/>
       <c r="C4" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="67" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+        <v>96</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="49" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H5" s="49"/>
       <c r="I5" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="54" t="s">
-        <v>140</v>
+        <v>97</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="D6" s="55"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
       <c r="G6" s="55" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H6" s="55"/>
       <c r="I6" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="18"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="18"/>
       <c r="H7" s="63" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I7" s="64">
         <f>SUM(I5:I6)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
@@ -5152,7 +4231,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
         <v>36</v>
       </c>
@@ -5163,24 +4242,24 @@
         <v>38</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G9" s="17" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="20" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>44</v>
@@ -5189,83 +4268,83 @@
         <v>45</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F10" s="20" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G10" s="21"/>
       <c r="H10" s="20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="18"/>
       <c r="C11" s="22" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="18"/>
       <c r="G11" s="22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H11" s="18"/>
       <c r="I11" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
+        <v>98</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
       <c r="G12" s="49" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H12" s="49"/>
       <c r="I12" s="57">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+        <v>99</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="55" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="H13" s="55"/>
       <c r="I13" s="56">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="H14" s="61" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="I14" s="62">
         <f>SUM(I12:I13)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H15" s="59" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="I15" s="59">
         <f>I7+I14</f>
@@ -5291,17 +4370,17 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="11" style="3" customWidth="1"/>
-    <col min="3" max="3" width="43.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -5312,7 +4391,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="6">
         <v>43284</v>
       </c>
@@ -5320,7 +4399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -5330,7 +4409,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -5341,7 +4420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -5351,7 +4430,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -5360,7 +4439,7 @@
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="17.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -5371,7 +4450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>2</v>
       </c>
@@ -5381,7 +4460,7 @@
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>4</v>
       </c>
@@ -5391,25 +4470,25 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.4">
       <c r="C17" s="2"/>
     </row>
   </sheetData>
@@ -5429,19 +4508,19 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="9.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.109375" style="3"/>
+    <col min="2" max="2" width="9.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="33.6" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
@@ -5464,7 +4543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -5487,7 +4566,7 @@
       </c>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="11">
         <v>1</v>
       </c>
@@ -5510,7 +4589,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -5533,7 +4612,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="11">
         <v>1</v>
       </c>
@@ -5556,7 +4635,7 @@
       </c>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -5579,7 +4658,7 @@
       </c>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="11">
         <v>1</v>
       </c>
@@ -5602,7 +4681,7 @@
       </c>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="11">
         <v>1</v>
       </c>
@@ -5625,7 +4704,7 @@
       </c>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="11">
         <v>1</v>
       </c>
@@ -5648,7 +4727,7 @@
       </c>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -5671,7 +4750,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="11">
         <v>1</v>
       </c>
@@ -5694,7 +4773,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -5728,14 +4807,14 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.88671875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="3" customWidth="1"/>
-    <col min="2" max="4" width="10.28515625" style="15" customWidth="1"/>
-    <col min="5" max="16384" width="7.85546875" style="3"/>
+    <col min="1" max="1" width="10.33203125" style="3" customWidth="1"/>
+    <col min="2" max="4" width="10.33203125" style="15" customWidth="1"/>
+    <col min="5" max="16384" width="7.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="50.4" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
         <v>13</v>
       </c>
@@ -5750,7 +4829,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>0</v>
       </c>
@@ -5768,7 +4847,7 @@
       </c>
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -5785,7 +4864,7 @@
       </c>
       <c r="E4" s="15"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -5802,7 +4881,7 @@
       </c>
       <c r="E5" s="15"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>3</v>
       </c>
@@ -5819,7 +4898,7 @@
       </c>
       <c r="E6" s="15"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -5836,7 +4915,7 @@
       </c>
       <c r="E7" s="15"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -5853,7 +4932,7 @@
       </c>
       <c r="E8" s="15"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
@@ -5870,7 +4949,7 @@
       </c>
       <c r="E9" s="15"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>7</v>
       </c>
@@ -5887,7 +4966,7 @@
       </c>
       <c r="E10" s="15"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -5904,7 +4983,7 @@
       </c>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>9</v>
       </c>
@@ -5921,7 +5000,7 @@
       </c>
       <c r="E12" s="15"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>10</v>
       </c>
